--- a/database/db.xlsx
+++ b/database/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daniele\scuola\5Ainfo\tecnologie\progetto\5ainfo\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7560AED0-8BD7-4E1F-8198-281C5C763170}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5174750-187F-4FE1-9B9D-1B8F41E23884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{BFDE9636-BB7E-4570-8725-A5B567CEED53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFDE9636-BB7E-4570-8725-A5B567CEED53}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,61 +27,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>pws</t>
   </si>
   <si>
-    <t>partite</t>
-  </si>
-  <si>
     <t>player1</t>
   </si>
   <si>
     <t>player2</t>
   </si>
   <si>
-    <t>datainz</t>
-  </si>
-  <si>
-    <t>datafin</t>
-  </si>
-  <si>
-    <t>vincit</t>
-  </si>
-  <si>
     <t>idpartita</t>
   </si>
   <si>
-    <t>log mosse</t>
-  </si>
-  <si>
     <t>sender</t>
   </si>
   <si>
     <t>mossa</t>
   </si>
   <si>
-    <t>log utente</t>
-  </si>
-  <si>
     <t>idutente</t>
   </si>
   <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>ora</t>
+    <t>utente</t>
+  </si>
+  <si>
+    <t>partita</t>
+  </si>
+  <si>
+    <t>log_utente</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>utilizzo sha512</t>
+  </si>
+  <si>
+    <t>inizio</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>risultato</t>
+  </si>
+  <si>
+    <t>1x2</t>
+  </si>
+  <si>
+    <t>log_mossa</t>
   </si>
 </sst>
 </file>
@@ -189,6 +189,10 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -198,10 +202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -518,104 +518,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B934BF1-24B1-433E-8041-8E0D7A92D1B3}">
   <dimension ref="C2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>9</v>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
